--- a/source_data_files/Extended_Data_Figure_3_SourceData.xlsx
+++ b/source_data_files/Extended_Data_Figure_3_SourceData.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
           <t>Drug selection</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Plates</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -477,6 +482,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00117015', 'BR00117016', 'BR00117017', 'BR00117019']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -497,6 +507,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00117020', 'BR00117021']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -517,6 +532,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00118050', 'BR00117006']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -537,6 +557,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00117020', 'BR00117021']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -557,6 +582,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00118050', 'BR00117006']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -577,6 +607,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -597,6 +632,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -617,6 +657,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -637,6 +682,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -657,6 +707,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00118050', 'BR00117006']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -677,6 +732,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -697,6 +757,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -717,6 +782,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['BR00118050', 'BR00117006', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -737,6 +807,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['BR00118050', 'BR00117006', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -757,6 +832,11 @@
           <t>A549 - A549</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['BR00118041', 'BR00118042', 'BR00118043', 'BR00118044', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -777,6 +857,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00118049']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -797,6 +882,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00118049']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -817,6 +907,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00117001', 'BR00117002']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -837,6 +932,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00117001', 'BR00117002']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -857,6 +957,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00118049']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -877,6 +982,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['BR00118050', 'BR00117006', 'BR00118049']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -897,6 +1007,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00117001', 'BR00117002']</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -917,6 +1032,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['BR00118050', 'BR00117006', 'BR00117001', 'BR00117002']</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -937,6 +1057,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['BR00118041', 'BR00118042', 'BR00118043', 'BR00118044', 'BR00118049']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -957,6 +1082,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['BR00118050', 'BR00117006', 'BR00117001', 'BR00117002']</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -977,6 +1107,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['BR00118041', 'BR00118042', 'BR00118043', 'BR00118044', 'BR00117001', 'BR00117002']</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -997,6 +1132,11 @@
           <t>A549 - A549+Selection</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['BR00117000', 'BR00117003', 'BR00117004', 'BR00117005', 'BR00117001', 'BR00117002']</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1015,6 +1155,11 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>A549+Selection - A549+Selection</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['BR00118049', 'BR00117001', 'BR00117002']</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,6 +1648,11 @@
           <t>Polybrene effect on compounds and matching</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Plates</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1523,6 +1673,11 @@
           <t>Target2 - Target2 + Polybrene</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['BR00121434', 'BR00121435', 'BR00121440', 'BR00121431', 'BR00121432', 'BR00121433']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1543,6 +1698,11 @@
           <t>Target2 - ORF</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['BR00121434', 'BR00121435', 'BR00121440', 'BR00117022', 'BR00117023']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1563,6 +1723,11 @@
           <t>Target2 - ORF</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['BR00121434', 'BR00121435', 'BR00121440', 'BR00118039', 'BR00118040']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1583,6 +1748,11 @@
           <t>Target2 + Polybrene - ORF</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['BR00121431', 'BR00121432', 'BR00121433', 'BR00117022', 'BR00117023']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1603,6 +1773,11 @@
           <t>Target2 + Polybrene - ORF</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['BR00121431', 'BR00121432', 'BR00121433', 'BR00118039', 'BR00118040']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1621,6 +1796,11 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>ORF - ORF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['BR00117022', 'BR00117023', 'BR00118039', 'BR00118040']</t>
         </is>
       </c>
     </row>

--- a/source_data_files/Extended_Data_Figure_3_SourceData.xlsx
+++ b/source_data_files/Extended_Data_Figure_3_SourceData.xlsx
@@ -465,7 +465,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47.50501672240803</v>
+        <v>48.82943143812709</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.872549019607843</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.843137254901961</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.898692810457517</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.163398692810455</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.745704467353952</v>
+        <v>11.16838487972508</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.585910652920962</v>
+        <v>10.13745704467354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.17525773195876</v>
+        <v>13.91752577319588</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.475945017182131</v>
+        <v>12.02749140893471</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.222950819672132</v>
+        <v>8.196721311475411</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.872131147540983</v>
+        <v>10.81967213114754</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.531147540983604</v>
+        <v>11.80327868852459</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.547540983606556</v>
+        <v>10.81967213114754</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.73949579831933</v>
+        <v>28.40336134453781</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.964052287581699</v>
+        <v>8.169934640522875</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.23202614379085</v>
+        <v>8.496732026143791</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.946735395189003</v>
+        <v>12.19931271477663</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.965635738831615</v>
+        <v>12.02749140893471</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.537704918032786</v>
+        <v>12.45901639344262</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.888524590163934</v>
+        <v>12.45901639344262</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.954098360655738</v>
+        <v>8.524590163934425</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.944262295081968</v>
+        <v>10.16393442622951</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28.42016806722689</v>
+        <v>30.08403361344537</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29.76134453781513</v>
+        <v>31.09243697478992</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.99016393442623</v>
+        <v>9.508196721311476</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38.80267558528428</v>
+        <v>39.46488294314381</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.218954248366012</v>
+        <v>13.0718954248366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.594771241830066</v>
+        <v>12.41830065359477</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.937908496732026</v>
+        <v>8.496732026143791</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.254901960784314</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
